--- a/분석자료/사망자_node.xlsx
+++ b/분석자료/사망자_node.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangj\OneDrive\바탕 화면\캡스톤2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangj\OneDrive\바탕 화면\캡스톤2\capstone2\capstone2\분석자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4796AF05-0E80-4A4A-A253-33600C5C0ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17CCCA5-6DDF-45F9-82E8-FED19903BA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1668" yWindow="768" windowWidth="19716" windowHeight="11556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7392" yWindow="24" windowWidth="21852" windowHeight="11556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,6 +444,27 @@
   <si>
     <t>Label</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100~299인</t>
+  </si>
+  <si>
+    <t>19인 이하</t>
+  </si>
+  <si>
+    <t>20~49인</t>
+  </si>
+  <si>
+    <t>300~499인</t>
+  </si>
+  <si>
+    <t>50~99인</t>
+  </si>
+  <si>
+    <t>500인 이상</t>
+  </si>
+  <si>
+    <t>알수없음</t>
   </si>
 </sst>
 </file>
@@ -771,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2410,6 +2431,83 @@
         <v>1</v>
       </c>
     </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A149" s="1">
+        <v>186</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C149">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A150" s="1">
+        <v>187</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C150">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A151" s="1">
+        <v>188</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C151">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A152" s="1">
+        <v>189</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C152">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A153" s="1">
+        <v>190</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C153">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A154" s="1">
+        <v>191</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C154">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A155" s="1">
+        <v>192</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/분석자료/사망자_node.xlsx
+++ b/분석자료/사망자_node.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yangj\OneDrive\바탕 화면\캡스톤2\capstone2\capstone2\분석자료\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17CCCA5-6DDF-45F9-82E8-FED19903BA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC1ECA1-0E9B-4226-BD25-6F2591C4B5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7392" yWindow="24" windowWidth="21852" windowHeight="11556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="252" windowWidth="21024" windowHeight="11556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="171">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,6 +474,108 @@
   </si>
   <si>
     <t>알수없음</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>eigencentrality</t>
+  </si>
+  <si>
+    <t>30~39%</t>
+  </si>
+  <si>
+    <t>100억 ~ 150억원 미만</t>
+  </si>
+  <si>
+    <t>50~59%</t>
+  </si>
+  <si>
+    <t>10~19%</t>
+  </si>
+  <si>
+    <t>500억 ~ 1,000억원 미만</t>
+  </si>
+  <si>
+    <t>40~49%</t>
+  </si>
+  <si>
+    <t>10% 미만</t>
+  </si>
+  <si>
+    <t>60~69%</t>
+  </si>
+  <si>
+    <t>70~79%</t>
+  </si>
+  <si>
+    <t>1,000만 ~ 2,000만원 미만</t>
+  </si>
+  <si>
+    <t>20~29%</t>
+  </si>
+  <si>
+    <t>겨울</t>
+  </si>
+  <si>
+    <t>80~89%</t>
+  </si>
+  <si>
+    <t>10억 ~ 20억원 미만</t>
+  </si>
+  <si>
+    <t>300억 ~ 500억원 미만</t>
+  </si>
+  <si>
+    <t>5억 ~ 10억원 미만</t>
+  </si>
+  <si>
+    <t>200억 ~ 300억원 미만</t>
+  </si>
+  <si>
+    <t>150억 ~ 200억원 미만</t>
+  </si>
+  <si>
+    <t>2,000만 ~ 4,000만원 미만</t>
+  </si>
+  <si>
+    <t>20억 ~ 50억원 미만</t>
+  </si>
+  <si>
+    <t>50억 ~ 100억원 미만</t>
+  </si>
+  <si>
+    <t>3억 ~ 5억원 미만</t>
+  </si>
+  <si>
+    <t>관공사</t>
+  </si>
+  <si>
+    <t>토목/댐/기타</t>
+  </si>
+  <si>
+    <t>1억 ~ 2억원 미만</t>
+  </si>
+  <si>
+    <t>건축/건축물/위험물 저장 및 처리시설</t>
+  </si>
+  <si>
+    <t>4,000만 ~ 1억원 미만</t>
+  </si>
+  <si>
+    <t>지반개량공사</t>
+  </si>
+  <si>
+    <t>2억 ~ 3억원 미만</t>
+  </si>
+  <si>
+    <t>지반조사</t>
+  </si>
+  <si>
+    <t>산업환경설비/환경시설/환경오염방지시설</t>
+  </si>
+  <si>
+    <t>댐 및 제방공사</t>
   </si>
 </sst>
 </file>
@@ -792,40 +903,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C155"/>
+  <dimension ref="A1:P155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="F151" sqref="F151"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B114" sqref="B97:F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="23.09765625" customWidth="1"/>
+    <col min="3" max="4" width="9.3984375" customWidth="1"/>
+    <col min="5" max="5" width="23.09765625" customWidth="1"/>
+    <col min="9" max="9" width="18.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>129</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
+        <v>95</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.89104700000000003</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1">
+        <v>124</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1">
+        <v>0.89104700000000003</v>
+      </c>
+      <c r="O2">
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -833,10 +984,31 @@
         <v>3</v>
       </c>
       <c r="C3">
+        <f>VLOOKUP(B3,$I$1:$L$135,2,0)</f>
+        <v>103</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <f>VLOOKUP(B3,$I$1:$L$135,4,0)</f>
+        <v>0.66352500000000003</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="1">
+        <v>110</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
+        <v>0.64237200000000005</v>
+      </c>
+      <c r="O3">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -844,10 +1016,31 @@
         <v>5</v>
       </c>
       <c r="C4">
+        <f>VLOOKUP(B4,$I$1:$L$135,2,0)</f>
+        <v>70</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <f>VLOOKUP(B4,$I$1:$L$135,4,0)</f>
+        <v>0.78761000000000003</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>103</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
+        <v>0.66352500000000003</v>
+      </c>
+      <c r="O4">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -855,10 +1048,31 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <f>VLOOKUP(B5,$I$1:$L$135,2,0)</f>
+        <v>89</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f>VLOOKUP(B5,$I$1:$L$135,4,0)</f>
+        <v>0.55145100000000002</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>95</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
+        <v>0.85279400000000005</v>
+      </c>
+      <c r="O5">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>555</v>
       </c>
@@ -866,21 +1080,62 @@
         <v>8</v>
       </c>
       <c r="C6">
+        <f>VLOOKUP(B6,$I$1:$L$135,2,0)</f>
+        <v>51</v>
+      </c>
+      <c r="E6" s="1">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <f>VLOOKUP(B6,$I$1:$L$135,4,0)</f>
+        <v>0.71958599999999995</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>89</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1">
+        <v>0.55145100000000002</v>
+      </c>
+      <c r="O6">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>666</v>
       </c>
       <c r="B7" s="1">
         <v>20</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1">
+        <v>7.8862000000000002E-2</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="1">
+        <v>86</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1">
+        <v>0.46569899999999997</v>
+      </c>
+      <c r="O7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>777</v>
       </c>
@@ -888,10 +1143,31 @@
         <v>14</v>
       </c>
       <c r="C8">
+        <f>VLOOKUP(B8,$I$1:$L$135,2,0)</f>
+        <v>63</v>
+      </c>
+      <c r="E8" s="1">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <f>VLOOKUP(B8,$I$1:$L$135,4,0)</f>
+        <v>0.61115600000000003</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="1">
+        <v>84</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1">
+        <v>0.623336</v>
+      </c>
+      <c r="O8">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>888</v>
       </c>
@@ -899,10 +1175,31 @@
         <v>13</v>
       </c>
       <c r="C9">
+        <f>VLOOKUP(B9,$I$1:$L$135,2,0)</f>
+        <v>55</v>
+      </c>
+      <c r="E9" s="1">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <f>VLOOKUP(B9,$I$1:$L$135,4,0)</f>
+        <v>0.30310500000000001</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="1">
+        <v>82</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1">
+        <v>0.72490200000000005</v>
+      </c>
+      <c r="O9">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>999</v>
       </c>
@@ -910,10 +1207,31 @@
         <v>11</v>
       </c>
       <c r="C10">
+        <f>VLOOKUP(B10,$I$1:$L$135,2,0)</f>
+        <v>63</v>
+      </c>
+      <c r="E10" s="1">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <f>VLOOKUP(B10,$I$1:$L$135,4,0)</f>
+        <v>0.610869</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="1">
+        <v>77</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1">
+        <v>0.64938300000000004</v>
+      </c>
+      <c r="O10">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1010</v>
       </c>
@@ -921,10 +1239,31 @@
         <v>10</v>
       </c>
       <c r="C11">
+        <f>VLOOKUP(B11,$I$1:$L$135,2,0)</f>
+        <v>75</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <f>VLOOKUP(B11,$I$1:$L$135,4,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11" s="1">
+        <v>75</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1111</v>
       </c>
@@ -932,10 +1271,31 @@
         <v>16</v>
       </c>
       <c r="C12">
+        <f>VLOOKUP(B12,$I$1:$L$135,2,0)</f>
+        <v>65</v>
+      </c>
+      <c r="E12" s="1">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <f>VLOOKUP(B12,$I$1:$L$135,4,0)</f>
+        <v>0.60370100000000004</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1">
+        <v>75</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
+        <v>0.299678</v>
+      </c>
+      <c r="O12">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>1212</v>
       </c>
@@ -943,10 +1303,31 @@
         <v>7</v>
       </c>
       <c r="C13">
+        <f>VLOOKUP(B13,$I$1:$L$135,2,0)</f>
+        <v>45</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7</v>
+      </c>
+      <c r="F13">
+        <f>VLOOKUP(B13,$I$1:$L$135,4,0)</f>
+        <v>0.58268399999999998</v>
+      </c>
+      <c r="I13" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="J13" s="1">
+        <v>74</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
+        <v>0.71795299999999995</v>
+      </c>
+      <c r="O13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1313</v>
       </c>
@@ -954,10 +1335,31 @@
         <v>9</v>
       </c>
       <c r="C14">
+        <f>VLOOKUP(B14,$I$1:$L$135,2,0)</f>
+        <v>69</v>
+      </c>
+      <c r="E14" s="1">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <f>VLOOKUP(B14,$I$1:$L$135,4,0)</f>
+        <v>0.73209400000000002</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" s="1">
+        <v>70</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1">
+        <v>0.78761000000000003</v>
+      </c>
+      <c r="O14">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1414</v>
       </c>
@@ -965,10 +1367,31 @@
         <v>17</v>
       </c>
       <c r="C15">
+        <f>VLOOKUP(B15,$I$1:$L$135,2,0)</f>
+        <v>23</v>
+      </c>
+      <c r="E15" s="1">
+        <v>17</v>
+      </c>
+      <c r="F15">
+        <f>VLOOKUP(B15,$I$1:$L$135,4,0)</f>
+        <v>0.37400699999999998</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" s="1">
+        <v>70</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1">
+        <v>0.75101099999999998</v>
+      </c>
+      <c r="O15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1515</v>
       </c>
@@ -976,21 +1399,62 @@
         <v>15</v>
       </c>
       <c r="C16">
+        <f>VLOOKUP(B16,$I$1:$L$135,2,0)</f>
+        <v>74</v>
+      </c>
+      <c r="E16" s="1">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <f>VLOOKUP(B16,$I$1:$L$135,4,0)</f>
+        <v>0.71795299999999995</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" s="1">
+        <v>69</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1">
+        <v>0.62344200000000005</v>
+      </c>
+      <c r="O16">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>1616</v>
       </c>
       <c r="B17" s="1">
         <v>21</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1">
+        <v>4.0580999999999999E-2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>9</v>
+      </c>
+      <c r="J17" s="1">
+        <v>69</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1">
+        <v>0.73209400000000002</v>
+      </c>
+      <c r="O17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1717</v>
       </c>
@@ -998,10 +1462,31 @@
         <v>6</v>
       </c>
       <c r="C18">
+        <f>VLOOKUP(B18,$I$1:$L$135,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <f>VLOOKUP(B18,$I$1:$L$135,4,0)</f>
+        <v>9.7658999999999996E-2</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="1">
+        <v>68</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1">
+        <v>0.70451399999999997</v>
+      </c>
+      <c r="O18">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>1818</v>
       </c>
@@ -1009,21 +1494,62 @@
         <v>12</v>
       </c>
       <c r="C19">
+        <f>VLOOKUP(B19,$I$1:$L$135,2,0)</f>
+        <v>40</v>
+      </c>
+      <c r="E19" s="1">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <f>VLOOKUP(B19,$I$1:$L$135,4,0)</f>
+        <v>0.68520000000000003</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J19" s="1">
+        <v>66</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1">
+        <v>0.66001900000000002</v>
+      </c>
+      <c r="O19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1919</v>
       </c>
       <c r="B20" s="1">
         <v>19</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7.7045000000000002E-2</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="1">
+        <v>65</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1">
+        <v>0.25572899999999998</v>
+      </c>
+      <c r="O20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>2020</v>
       </c>
@@ -1031,10 +1557,31 @@
         <v>0</v>
       </c>
       <c r="C21">
+        <f>VLOOKUP(B21,$I$1:$L$135,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>VLOOKUP(B21,$I$1:$L$135,4,0)</f>
+        <v>0.104088</v>
+      </c>
+      <c r="I21" s="1">
+        <v>16</v>
+      </c>
+      <c r="J21" s="1">
+        <v>65</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1">
+        <v>0.60370100000000004</v>
+      </c>
+      <c r="O21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>2121</v>
       </c>
@@ -1042,32 +1589,93 @@
         <v>18</v>
       </c>
       <c r="C22">
+        <f>VLOOKUP(B22,$I$1:$L$135,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E22" s="1">
+        <v>18</v>
+      </c>
+      <c r="F22">
+        <f>VLOOKUP(B22,$I$1:$L$135,4,0)</f>
+        <v>0.362898</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J22" s="1">
+        <v>64</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1">
+        <v>0.78834700000000002</v>
+      </c>
+      <c r="O22">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2222</v>
       </c>
       <c r="B23" s="1">
         <v>23</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
+        <v>23</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4.2009999999999999E-2</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J23" s="1">
+        <v>63</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1">
+        <v>0.73818499999999998</v>
+      </c>
+      <c r="O23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>2323</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="F24" s="1">
+        <v>3.8357000000000002E-2</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J24" s="1">
+        <v>63</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1">
+        <v>0.65514899999999998</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>2424</v>
       </c>
@@ -1075,10 +1683,31 @@
         <v>2</v>
       </c>
       <c r="C25">
+        <f>VLOOKUP(B25,$I$1:$L$135,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <f>VLOOKUP(B25,$I$1:$L$135,4,0)</f>
+        <v>7.5358999999999995E-2</v>
+      </c>
+      <c r="I25" s="1">
+        <v>11</v>
+      </c>
+      <c r="J25" s="1">
+        <v>63</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1">
+        <v>0.610869</v>
+      </c>
+      <c r="O25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1086,43 +1715,123 @@
         <v>105</v>
       </c>
       <c r="C26">
+        <f>J22</f>
+        <v>64</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.78834700000000002</v>
+      </c>
+      <c r="I26" s="1">
+        <v>14</v>
+      </c>
+      <c r="J26" s="1">
+        <v>63</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1">
+        <v>0.61115600000000003</v>
+      </c>
+      <c r="O26">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
+        <v>63</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.65514899999999998</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J27" s="1">
+        <v>62</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1">
+        <v>0.73609599999999997</v>
+      </c>
+      <c r="O27">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
+        <v>69</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.62344200000000005</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J28" s="1">
+        <v>61</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1">
+        <v>0.70986000000000005</v>
+      </c>
+      <c r="O28">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
+        <v>59</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0.376751</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J29" s="1">
+        <v>59</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1">
+        <v>0.376751</v>
+      </c>
+      <c r="O29">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1130,10 +1839,31 @@
         <v>128</v>
       </c>
       <c r="C30">
+        <f>VLOOKUP(B30,$I$1:$L$135,2,0)</f>
+        <v>52</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30">
+        <f>VLOOKUP(B30,$I$1:$L$135,4,0)</f>
+        <v>0.59892999999999996</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J30" s="1">
+        <v>59</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1">
+        <v>0.24013100000000001</v>
+      </c>
+      <c r="O30">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1141,54 +1871,155 @@
         <v>6</v>
       </c>
       <c r="C31">
+        <f>VLOOKUP(B31,$I$1:$L$135,2,0)</f>
+        <v>75</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <f>VLOOKUP(B31,$I$1:$L$135,4,0)</f>
+        <v>0.299678</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J31" s="1">
+        <v>58</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1">
+        <v>0.70841500000000002</v>
+      </c>
+      <c r="O31">
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
+        <v>56</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J32" s="1">
+        <v>56</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="O32">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
+        <v>61</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0.70986000000000005</v>
+      </c>
+      <c r="I33" s="1">
+        <v>13</v>
+      </c>
+      <c r="J33" s="1">
+        <v>55</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1">
+        <v>0.30310500000000001</v>
+      </c>
+      <c r="O33">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
+        <v>55</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0.73606099999999997</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J34" s="1">
+        <v>55</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1">
+        <v>0.73606099999999997</v>
+      </c>
+      <c r="O34">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
+        <v>70</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.75101099999999998</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J35" s="1">
+        <v>55</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1">
+        <v>0.16277</v>
+      </c>
+      <c r="O35">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1196,10 +2027,31 @@
         <v>7</v>
       </c>
       <c r="C36">
+        <f>VLOOKUP(B36,$I$1:$L$135,2,0)</f>
+        <v>124</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36">
+        <f>VLOOKUP(B36,$I$1:$L$135,4,0)</f>
+        <v>0.89104700000000003</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J36" s="1">
+        <v>54</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1">
+        <v>0.91911399999999999</v>
+      </c>
+      <c r="O36">
         <v>256</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1207,10 +2059,31 @@
         <v>8</v>
       </c>
       <c r="C37">
+        <f>VLOOKUP(B37,$I$1:$L$135,2,0)</f>
+        <v>86</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <f>VLOOKUP(B37,$I$1:$L$135,4,0)</f>
+        <v>0.46569899999999997</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J37" s="1">
+        <v>52</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1">
+        <v>0.69159599999999999</v>
+      </c>
+      <c r="O37">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1218,10 +2091,31 @@
         <v>9</v>
       </c>
       <c r="C38">
+        <f>VLOOKUP(B38,$I$1:$L$135,2,0)</f>
+        <v>47</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38">
+        <f>VLOOKUP(B38,$I$1:$L$135,4,0)</f>
+        <v>0.67577200000000004</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J38" s="1">
+        <v>52</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1">
+        <v>0.59892999999999996</v>
+      </c>
+      <c r="O38">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1229,21 +2123,62 @@
         <v>10</v>
       </c>
       <c r="C39">
+        <f>VLOOKUP(B39,$I$1:$L$135,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <f>VLOOKUP(B39,$I$1:$L$135,4,0)</f>
+        <v>0.39324700000000001</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J39" s="1">
+        <v>52</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1">
+        <v>0.72879700000000003</v>
+      </c>
+      <c r="O39">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="1">
+        <v>6.0879000000000003E-2</v>
+      </c>
+      <c r="I40" s="1">
+        <v>8</v>
+      </c>
+      <c r="J40" s="1">
+        <v>51</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1">
+        <v>0.71958599999999995</v>
+      </c>
+      <c r="O40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1251,10 +2186,31 @@
         <v>12</v>
       </c>
       <c r="C41">
+        <f>VLOOKUP(B41,$I$1:$L$135,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <f>VLOOKUP(B41,$I$1:$L$135,4,0)</f>
+        <v>9.647E-2</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J41" s="1">
+        <v>51</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1">
+        <v>0.46691500000000002</v>
+      </c>
+      <c r="O41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1262,10 +2218,31 @@
         <v>13</v>
       </c>
       <c r="C42">
+        <f>VLOOKUP(B42,$I$1:$L$135,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42">
+        <f>VLOOKUP(B42,$I$1:$L$135,4,0)</f>
+        <v>0.27044699999999999</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J42" s="1">
+        <v>49</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1">
+        <v>0.51183500000000004</v>
+      </c>
+      <c r="O42">
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1273,10 +2250,31 @@
         <v>14</v>
       </c>
       <c r="C43">
+        <f>VLOOKUP(B43,$I$1:$L$135,2,0)</f>
+        <v>48</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43">
+        <f>VLOOKUP(B43,$I$1:$L$135,4,0)</f>
+        <v>0.34776200000000002</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J43" s="1">
+        <v>48</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1">
+        <v>0.34776200000000002</v>
+      </c>
+      <c r="O43">
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1284,10 +2282,31 @@
         <v>15</v>
       </c>
       <c r="C44">
+        <f>VLOOKUP(B44,$I$1:$L$135,2,0)</f>
+        <v>65</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44">
+        <f>VLOOKUP(B44,$I$1:$L$135,4,0)</f>
+        <v>0.25572899999999998</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="J44" s="1">
+        <v>48</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1">
+        <v>0.271955</v>
+      </c>
+      <c r="O44">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1295,10 +2314,31 @@
         <v>16</v>
       </c>
       <c r="C45">
+        <f>VLOOKUP(B45,$I$1:$L$135,2,0)</f>
+        <v>44</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45">
+        <f>VLOOKUP(B45,$I$1:$L$135,4,0)</f>
+        <v>0.55535999999999996</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="1">
+        <v>47</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1">
+        <v>0.67577200000000004</v>
+      </c>
+      <c r="O45">
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1306,10 +2346,31 @@
         <v>17</v>
       </c>
       <c r="C46">
+        <f>VLOOKUP(B46,$I$1:$L$135,2,0)</f>
+        <v>43</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46">
+        <f>VLOOKUP(B46,$I$1:$L$135,4,0)</f>
+        <v>0.46243699999999999</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J46" s="1">
+        <v>46</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1">
+        <v>0.39419399999999999</v>
+      </c>
+      <c r="O46">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1317,10 +2378,31 @@
         <v>18</v>
       </c>
       <c r="C47">
+        <f>VLOOKUP(B47,$I$1:$L$135,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47">
+        <f>VLOOKUP(B47,$I$1:$L$135,4,0)</f>
+        <v>0.103107</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J47" s="1">
+        <v>46</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1">
+        <v>0.84877599999999997</v>
+      </c>
+      <c r="O47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1328,21 +2410,62 @@
         <v>19</v>
       </c>
       <c r="C48">
+        <f>VLOOKUP(B48,$I$1:$L$135,2,0)</f>
+        <v>18</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48">
+        <f>VLOOKUP(B48,$I$1:$L$135,4,0)</f>
+        <v>0.168603</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J48" s="1">
+        <v>46</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1">
+        <v>0.66326499999999999</v>
+      </c>
+      <c r="O48">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0.14181099999999999</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J49" s="1">
+        <v>45</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1">
+        <v>0.48201699999999997</v>
+      </c>
+      <c r="O49">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1350,10 +2473,31 @@
         <v>21</v>
       </c>
       <c r="C50">
+        <f>VLOOKUP(B50,$I$1:$L$135,2,0)</f>
+        <v>31</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50">
+        <f>VLOOKUP(B50,$I$1:$L$135,4,0)</f>
+        <v>0.53204600000000002</v>
+      </c>
+      <c r="I50" s="1">
+        <v>7</v>
+      </c>
+      <c r="J50" s="1">
+        <v>45</v>
+      </c>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1">
+        <v>0.58268399999999998</v>
+      </c>
+      <c r="O50">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1361,10 +2505,31 @@
         <v>22</v>
       </c>
       <c r="C51">
+        <f>VLOOKUP(B51,$I$1:$L$135,2,0)</f>
+        <v>17</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51">
+        <f>VLOOKUP(B51,$I$1:$L$135,4,0)</f>
+        <v>0.15183099999999999</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="1">
+        <v>44</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1">
+        <v>0.55535999999999996</v>
+      </c>
+      <c r="O51">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1372,10 +2537,31 @@
         <v>23</v>
       </c>
       <c r="C52">
+        <f>VLOOKUP(B52,$I$1:$L$135,2,0)</f>
+        <v>18</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52">
+        <f>VLOOKUP(B52,$I$1:$L$135,4,0)</f>
+        <v>0.38489600000000002</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="1">
+        <v>43</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1">
+        <v>0.46243699999999999</v>
+      </c>
+      <c r="O52">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1383,10 +2569,31 @@
         <v>24</v>
       </c>
       <c r="C53">
+        <f>VLOOKUP(B53,$I$1:$L$135,2,0)</f>
+        <v>30</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53">
+        <f>VLOOKUP(B53,$I$1:$L$135,4,0)</f>
+        <v>0.58714900000000003</v>
+      </c>
+      <c r="I53" s="1">
+        <v>12</v>
+      </c>
+      <c r="J53" s="1">
+        <v>40</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1">
+        <v>0.68520000000000003</v>
+      </c>
+      <c r="O53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1394,32 +2601,93 @@
         <v>25</v>
       </c>
       <c r="C54">
+        <f>VLOOKUP(B54,$I$1:$L$135,2,0)</f>
+        <v>25</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54">
+        <f>VLOOKUP(B54,$I$1:$L$135,4,0)</f>
+        <v>0.15803500000000001</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J54" s="1">
+        <v>39</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1">
+        <v>0.29412300000000002</v>
+      </c>
+      <c r="O54">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
+        <v>3</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0.14787700000000001</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J55" s="1">
+        <v>39</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1">
+        <v>0.327179</v>
+      </c>
+      <c r="O55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0.108656</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J56" s="1">
+        <v>39</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1">
+        <v>0.55307499999999998</v>
+      </c>
+      <c r="O56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1427,10 +2695,31 @@
         <v>28</v>
       </c>
       <c r="C57">
+        <f>VLOOKUP(B57,$I$1:$L$135,2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57">
+        <f>VLOOKUP(B57,$I$1:$L$135,4,0)</f>
+        <v>9.7993999999999998E-2</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J57" s="1">
+        <v>36</v>
+      </c>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1">
+        <v>0.24143100000000001</v>
+      </c>
+      <c r="O57">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1438,10 +2727,31 @@
         <v>29</v>
       </c>
       <c r="C58">
+        <f>VLOOKUP(B58,$I$1:$L$135,2,0)</f>
+        <v>28</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58">
+        <f>VLOOKUP(B58,$I$1:$L$135,4,0)</f>
+        <v>0.20838100000000001</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J58" s="1">
+        <v>36</v>
+      </c>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1">
+        <v>0.53283800000000003</v>
+      </c>
+      <c r="O58">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1449,10 +2759,31 @@
         <v>30</v>
       </c>
       <c r="C59">
+        <f>VLOOKUP(B59,$I$1:$L$135,2,0)</f>
+        <v>55</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59">
+        <f>VLOOKUP(B59,$I$1:$L$135,4,0)</f>
+        <v>0.16277</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J59" s="1">
+        <v>34</v>
+      </c>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1">
+        <v>0.366643</v>
+      </c>
+      <c r="O59">
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1460,32 +2791,93 @@
         <v>31</v>
       </c>
       <c r="C60">
+        <f>VLOOKUP(B60,$I$1:$L$135,2,0)</f>
+        <v>45</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60">
+        <f>VLOOKUP(B60,$I$1:$L$135,4,0)</f>
+        <v>0.48201699999999997</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J60" s="1">
+        <v>31</v>
+      </c>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1">
+        <v>0.53204600000000002</v>
+      </c>
+      <c r="O60">
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0.18233199999999999</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J61" s="1">
+        <v>30</v>
+      </c>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1">
+        <v>0.58714900000000003</v>
+      </c>
+      <c r="O61">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0.15159900000000001</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" s="1">
+        <v>30</v>
+      </c>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1">
+        <v>0.27044699999999999</v>
+      </c>
+      <c r="O62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -1493,10 +2885,31 @@
         <v>34</v>
       </c>
       <c r="C63">
+        <f>VLOOKUP(B63,$I$1:$L$135,2,0)</f>
+        <v>34</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63">
+        <f>VLOOKUP(B63,$I$1:$L$135,4,0)</f>
+        <v>0.366643</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J63" s="1">
+        <v>28</v>
+      </c>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1">
+        <v>0.55454899999999996</v>
+      </c>
+      <c r="O63">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -1504,10 +2917,31 @@
         <v>35</v>
       </c>
       <c r="C64">
+        <f>VLOOKUP(B64,$I$1:$L$135,2,0)</f>
+        <v>27</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64">
+        <f>VLOOKUP(B64,$I$1:$L$135,4,0)</f>
+        <v>0.49073800000000001</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J64" s="1">
+        <v>28</v>
+      </c>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1">
+        <v>0.31153399999999998</v>
+      </c>
+      <c r="O64">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -1515,10 +2949,31 @@
         <v>36</v>
       </c>
       <c r="C65">
+        <f>VLOOKUP(B65,$I$1:$L$135,2,0)</f>
+        <v>23</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65">
+        <f>VLOOKUP(B65,$I$1:$L$135,4,0)</f>
+        <v>0.41984199999999999</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J65" s="1">
+        <v>28</v>
+      </c>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1">
+        <v>0.20838100000000001</v>
+      </c>
+      <c r="O65">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1526,32 +2981,93 @@
         <v>37</v>
       </c>
       <c r="C66">
+        <f>VLOOKUP(B66,$I$1:$L$135,2,0)</f>
+        <v>24</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F66">
+        <f>VLOOKUP(B66,$I$1:$L$135,4,0)</f>
+        <v>0.53771500000000005</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J66" s="1">
+        <v>28</v>
+      </c>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1">
+        <v>0.34335599999999999</v>
+      </c>
+      <c r="O66">
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" s="1">
+        <v>9.7603999999999996E-2</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J67" s="1">
+        <v>27</v>
+      </c>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1">
+        <v>0.49073800000000001</v>
+      </c>
+      <c r="O67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
+        <v>5</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.24096699999999999</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J68" s="1">
+        <v>26</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1">
+        <v>0.310917</v>
+      </c>
+      <c r="O68">
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -1559,10 +3075,31 @@
         <v>40</v>
       </c>
       <c r="C69">
+        <f>VLOOKUP(B69,$I$1:$L$135,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F69">
+        <f>VLOOKUP(B69,$I$1:$L$135,4,0)</f>
+        <v>0.29552699999999998</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J69" s="1">
+        <v>25</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1">
+        <v>0.15803500000000001</v>
+      </c>
+      <c r="O69">
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1570,21 +3107,62 @@
         <v>41</v>
       </c>
       <c r="C70">
+        <f>VLOOKUP(B70,$I$1:$L$135,2,0)</f>
+        <v>24</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70">
+        <f>VLOOKUP(B70,$I$1:$L$135,4,0)</f>
+        <v>0.209115</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J70" s="1">
+        <v>25</v>
+      </c>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1">
+        <v>0.914219</v>
+      </c>
+      <c r="O70">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.108656</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J71" s="1">
+        <v>24</v>
+      </c>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1">
+        <v>0.51248000000000005</v>
+      </c>
+      <c r="O71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1592,10 +3170,31 @@
         <v>43</v>
       </c>
       <c r="C72">
+        <f>VLOOKUP(B72,$I$1:$L$135,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72">
+        <f>VLOOKUP(B72,$I$1:$L$135,4,0)</f>
+        <v>0.24785599999999999</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J72" s="1">
+        <v>24</v>
+      </c>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1">
+        <v>0.64576100000000003</v>
+      </c>
+      <c r="O72">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -1603,10 +3202,31 @@
         <v>44</v>
       </c>
       <c r="C73">
+        <f>VLOOKUP(B73,$I$1:$L$135,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73">
+        <f>VLOOKUP(B73,$I$1:$L$135,4,0)</f>
+        <v>0.156387</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J73" s="1">
+        <v>24</v>
+      </c>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1">
+        <v>0.53771500000000005</v>
+      </c>
+      <c r="O73">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1614,10 +3234,31 @@
         <v>45</v>
       </c>
       <c r="C74">
+        <f>VLOOKUP(B74,$I$1:$L$135,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74">
+        <f>VLOOKUP(B74,$I$1:$L$135,4,0)</f>
+        <v>0.100701</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J74" s="1">
+        <v>24</v>
+      </c>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1">
+        <v>0.209115</v>
+      </c>
+      <c r="O74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1625,21 +3266,62 @@
         <v>46</v>
       </c>
       <c r="C75">
+        <f>VLOOKUP(B75,$I$1:$L$135,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F75">
+        <f>VLOOKUP(B75,$I$1:$L$135,4,0)</f>
+        <v>9.1824000000000003E-2</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J75" s="1">
+        <v>23</v>
+      </c>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1">
+        <v>0.41984199999999999</v>
+      </c>
+      <c r="O75">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
+        <v>2</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.108068</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J76" s="1">
+        <v>23</v>
+      </c>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1">
+        <v>0.335011</v>
+      </c>
+      <c r="O76">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1647,10 +3329,31 @@
         <v>48</v>
       </c>
       <c r="C77">
+        <f>VLOOKUP(B77,$I$1:$L$135,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F77">
+        <f>VLOOKUP(B77,$I$1:$L$135,4,0)</f>
+        <v>0.15463099999999999</v>
+      </c>
+      <c r="I77" s="1">
+        <v>17</v>
+      </c>
+      <c r="J77" s="1">
+        <v>23</v>
+      </c>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1">
+        <v>0.37400699999999998</v>
+      </c>
+      <c r="O77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1658,10 +3361,31 @@
         <v>49</v>
       </c>
       <c r="C78">
+        <f>VLOOKUP(B78,$I$1:$L$135,2,0)</f>
+        <v>14</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F78">
+        <f>VLOOKUP(B78,$I$1:$L$135,4,0)</f>
+        <v>0.12848799999999999</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J78" s="1">
+        <v>23</v>
+      </c>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1">
+        <v>0.243285</v>
+      </c>
+      <c r="O78">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -1669,10 +3393,31 @@
         <v>50</v>
       </c>
       <c r="C79">
+        <f>VLOOKUP(B79,$I$1:$L$135,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F79">
+        <f>VLOOKUP(B79,$I$1:$L$135,4,0)</f>
+        <v>0.24789600000000001</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J79" s="1">
+        <v>23</v>
+      </c>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1">
+        <v>0.34901799999999999</v>
+      </c>
+      <c r="O79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1680,32 +3425,93 @@
         <v>51</v>
       </c>
       <c r="C80">
+        <f>VLOOKUP(B80,$I$1:$L$135,2,0)</f>
+        <v>23</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80">
+        <f>VLOOKUP(B80,$I$1:$L$135,4,0)</f>
+        <v>0.335011</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J80" s="1">
+        <v>23</v>
+      </c>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1">
+        <v>9.6971000000000002E-2</v>
+      </c>
+      <c r="O80">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
+        <v>4</v>
+      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F81" s="1">
+        <v>0.19855700000000001</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J81" s="1">
+        <v>21</v>
+      </c>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1">
+        <v>0.29552699999999998</v>
+      </c>
+      <c r="O81">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
+        <v>2</v>
+      </c>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F82" s="1">
+        <v>0.11771</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J82" s="1">
+        <v>21</v>
+      </c>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1">
+        <v>0.39324700000000001</v>
+      </c>
+      <c r="O82">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -1713,21 +3519,62 @@
         <v>54</v>
       </c>
       <c r="C83">
+        <f>VLOOKUP(B83,$I$1:$L$135,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F83">
+        <f>VLOOKUP(B83,$I$1:$L$135,4,0)</f>
+        <v>0.25792100000000001</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J83" s="1">
+        <v>21</v>
+      </c>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1">
+        <v>0.11004</v>
+      </c>
+      <c r="O83">
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
+        <v>2</v>
+      </c>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="1">
+        <v>9.0489E-2</v>
+      </c>
+      <c r="I84" s="1">
+        <v>18</v>
+      </c>
+      <c r="J84" s="1">
+        <v>21</v>
+      </c>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1">
+        <v>0.362898</v>
+      </c>
+      <c r="O84">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1735,21 +3582,62 @@
         <v>56</v>
       </c>
       <c r="C85">
+        <f>VLOOKUP(B85,$I$1:$L$135,2,0)</f>
+        <v>18</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F85">
+        <f>VLOOKUP(B85,$I$1:$L$135,4,0)</f>
+        <v>0.30910799999999999</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J85" s="1">
+        <v>19</v>
+      </c>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1">
+        <v>0.300398</v>
+      </c>
+      <c r="O85">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
+        <v>5</v>
+      </c>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0.153001</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J86" s="1">
+        <v>18</v>
+      </c>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1">
+        <v>0.38489600000000002</v>
+      </c>
+      <c r="O86">
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -1757,32 +3645,93 @@
         <v>58</v>
       </c>
       <c r="C87">
+        <f>VLOOKUP(B87,$I$1:$L$135,2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F87">
+        <f>VLOOKUP(B87,$I$1:$L$135,4,0)</f>
+        <v>9.8695000000000005E-2</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J87" s="1">
+        <v>18</v>
+      </c>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1">
+        <v>0.30910799999999999</v>
+      </c>
+      <c r="O87">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F88" s="1">
+        <v>0.108068</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J88" s="1">
+        <v>18</v>
+      </c>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1">
+        <v>0.168603</v>
+      </c>
+      <c r="O88">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
+        <v>2</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F89" s="1">
+        <v>7.9686000000000007E-2</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J89" s="1">
+        <v>17</v>
+      </c>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1">
+        <v>0.332507</v>
+      </c>
+      <c r="O89">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -1790,10 +3739,31 @@
         <v>61</v>
       </c>
       <c r="C90">
+        <f>VLOOKUP(B90,$I$1:$L$135,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F90">
+        <f>VLOOKUP(B90,$I$1:$L$135,4,0)</f>
+        <v>0.14904400000000001</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J90" s="1">
+        <v>17</v>
+      </c>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1">
+        <v>0.17904999999999999</v>
+      </c>
+      <c r="O90">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -1801,10 +3771,31 @@
         <v>62</v>
       </c>
       <c r="C91">
+        <f>VLOOKUP(B91,$I$1:$L$135,2,0)</f>
+        <v>10</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F91">
+        <f>VLOOKUP(B91,$I$1:$L$135,4,0)</f>
+        <v>0.180141</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J91" s="1">
+        <v>17</v>
+      </c>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1">
+        <v>0.32784099999999999</v>
+      </c>
+      <c r="O91">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -1812,43 +3803,124 @@
         <v>63</v>
       </c>
       <c r="C92">
+        <f>VLOOKUP(B92,$I$1:$L$135,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F92">
+        <f>VLOOKUP(B92,$I$1:$L$135,4,0)</f>
+        <v>0.14432</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J92" s="1">
+        <v>17</v>
+      </c>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1">
+        <v>0.15183099999999999</v>
+      </c>
+      <c r="O92">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F93" s="1">
+        <v>0.123139</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J93" s="1">
+        <v>17</v>
+      </c>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1">
+        <v>0.22283500000000001</v>
+      </c>
+      <c r="O93">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
+        <v>2</v>
+      </c>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F94" s="1">
+        <v>0.123139</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J94" s="1">
+        <v>17</v>
+      </c>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1">
+        <v>9.4326999999999994E-2</v>
+      </c>
+      <c r="O94">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
+        <v>2</v>
+      </c>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="1">
+        <v>0.100956</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J95" s="1">
+        <v>15</v>
+      </c>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1">
+        <v>9.4326999999999994E-2</v>
+      </c>
+      <c r="O95">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -1856,65 +3928,201 @@
         <v>67</v>
       </c>
       <c r="C96">
+        <f>VLOOKUP(B96,$I$1:$L$135,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F96">
+        <f>VLOOKUP(B96,$I$1:$L$135,4,0)</f>
+        <v>0.58782400000000001</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J96" s="1">
+        <v>14</v>
+      </c>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1">
+        <v>0.12848799999999999</v>
+      </c>
+      <c r="O96">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
+        <v>58</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F97" s="1">
+        <v>0.70841500000000002</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J97" s="1">
+        <v>13</v>
+      </c>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1">
+        <v>0.24785599999999999</v>
+      </c>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97">
         <v>36</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="P97" s="1"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
+        <v>49</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F98" s="1">
+        <v>0.51183500000000004</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J98" s="1">
+        <v>13</v>
+      </c>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1">
+        <v>0.239928</v>
+      </c>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98">
         <v>12</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="P98" s="1"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
+        <v>46</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F99" s="1">
+        <v>0.39419399999999999</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" s="1">
+        <v>13</v>
+      </c>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1">
+        <v>0.103107</v>
+      </c>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99">
         <v>29</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="P99" s="1"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
+        <v>23</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F100" s="1">
+        <v>0.34901799999999999</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J100" s="1">
+        <v>13</v>
+      </c>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1">
+        <v>0.15463099999999999</v>
+      </c>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="P100" s="1"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
+        <v>52</v>
+      </c>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F101" s="1">
+        <v>0.72879700000000003</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J101" s="1">
+        <v>13</v>
+      </c>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1">
+        <v>0.172539</v>
+      </c>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101">
         <v>15</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="P101" s="1"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -1922,109 +4130,331 @@
         <v>68</v>
       </c>
       <c r="C102">
+        <f>VLOOKUP(B102,$I$1:$L$135,2,0)</f>
+        <v>82</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F102">
+        <f>VLOOKUP(B102,$I$1:$L$135,4,0)</f>
+        <v>0.72490200000000005</v>
+      </c>
+      <c r="I102" s="1">
+        <v>6</v>
+      </c>
+      <c r="J102" s="1">
+        <v>13</v>
+      </c>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1">
+        <v>9.7658999999999996E-2</v>
+      </c>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102">
         <v>57</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="P102" s="1"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
+        <v>46</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0.84877599999999997</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J103" s="1">
+        <v>12</v>
+      </c>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1">
+        <v>0.21940599999999999</v>
+      </c>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103">
         <v>25</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="P103" s="1"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
+        <v>36</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0.53283800000000003</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J104" s="1">
+        <v>12</v>
+      </c>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1">
+        <v>9.8695000000000005E-2</v>
+      </c>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104">
         <v>14</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="P104" s="1"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
+        <v>46</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0.66326499999999999</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J105" s="1">
+        <v>12</v>
+      </c>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1">
+        <v>9.7993999999999998E-2</v>
+      </c>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105">
         <v>38</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="P105" s="1"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
+        <v>63</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0.73818499999999998</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J106" s="1">
+        <v>11</v>
+      </c>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1">
+        <v>0.15198700000000001</v>
+      </c>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106">
         <v>25</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="P106" s="1"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
+        <v>11</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0.31927499999999998</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J107" s="1">
+        <v>11</v>
+      </c>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1">
+        <v>0.31927499999999998</v>
+      </c>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="P107" s="1"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
+        <v>26</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0.310917</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J108" s="1">
+        <v>11</v>
+      </c>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1">
+        <v>9.7004000000000007E-2</v>
+      </c>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108">
         <v>7</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="P108" s="1"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
+        <v>11</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F109" s="1">
+        <v>9.7004000000000007E-2</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J109" s="1">
+        <v>11</v>
+      </c>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1">
+        <v>9.1824000000000003E-2</v>
+      </c>
+      <c r="O109">
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
+        <v>52</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0.69159599999999999</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J110" s="1">
+        <v>11</v>
+      </c>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1">
+        <v>9.1824000000000003E-2</v>
+      </c>
+      <c r="O110">
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
+        <v>17</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111" s="1">
+        <v>9.4326999999999994E-2</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J111" s="1">
+        <v>11</v>
+      </c>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1">
+        <v>0.25792100000000001</v>
+      </c>
+      <c r="O111">
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -2032,10 +4462,31 @@
         <v>69</v>
       </c>
       <c r="C112">
+        <f>VLOOKUP(B112,$I$1:$L$135,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F112">
+        <f>VLOOKUP(B112,$I$1:$L$135,4,0)</f>
+        <v>0.82926100000000003</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1">
+        <v>11</v>
+      </c>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1">
+        <v>0.104088</v>
+      </c>
+      <c r="O112">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -2043,21 +4494,62 @@
         <v>70</v>
       </c>
       <c r="C113">
+        <f>VLOOKUP(B113,$I$1:$L$135,2,0)</f>
+        <v>13</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F113">
+        <f>VLOOKUP(B113,$I$1:$L$135,4,0)</f>
+        <v>0.172539</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J113" s="1">
+        <v>11</v>
+      </c>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1">
+        <v>8.9829999999999993E-2</v>
+      </c>
+      <c r="O113">
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
+        <v>17</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0.17904999999999999</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J114" s="1">
+        <v>10</v>
+      </c>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1">
+        <v>0.180141</v>
+      </c>
+      <c r="O114">
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -2065,10 +4557,31 @@
         <v>104</v>
       </c>
       <c r="C115">
+        <f>VLOOKUP(B115,$I$1:$L$135,2,0)</f>
+        <v>23</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F115">
+        <f>VLOOKUP(B115,$I$1:$L$135,4,0)</f>
+        <v>0.243285</v>
+      </c>
+      <c r="I115" s="1">
+        <v>2</v>
+      </c>
+      <c r="J115" s="1">
+        <v>7</v>
+      </c>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1">
+        <v>7.5358999999999995E-2</v>
+      </c>
+      <c r="O115">
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -2076,10 +4589,31 @@
         <v>71</v>
       </c>
       <c r="C116">
+        <f>VLOOKUP(B116,$I$1:$L$135,2,0)</f>
+        <v>36</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F116">
+        <f>VLOOKUP(B116,$I$1:$L$135,4,0)</f>
+        <v>0.24143100000000001</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J116" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="K116" s="1"/>
+      <c r="L116" s="1">
+        <v>6.5806000000000003E-2</v>
+      </c>
+      <c r="O116">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -2087,10 +4621,31 @@
         <v>72</v>
       </c>
       <c r="C117">
+        <f>VLOOKUP(B117,$I$1:$L$135,2,0)</f>
+        <v>54</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F117">
+        <f>VLOOKUP(B117,$I$1:$L$135,4,0)</f>
+        <v>0.91911399999999999</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J117" s="1">
+        <v>7</v>
+      </c>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1">
+        <v>0.156387</v>
+      </c>
+      <c r="O117">
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -2098,10 +4653,31 @@
         <v>73</v>
       </c>
       <c r="C118">
+        <f>VLOOKUP(B118,$I$1:$L$135,2,0)</f>
+        <v>39</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F118">
+        <f>VLOOKUP(B118,$I$1:$L$135,4,0)</f>
+        <v>0.55307499999999998</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J118" s="1">
+        <v>7</v>
+      </c>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1">
+        <v>0.153392</v>
+      </c>
+      <c r="O118">
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -2109,10 +4685,31 @@
         <v>74</v>
       </c>
       <c r="C119">
+        <f>VLOOKUP(B119,$I$1:$L$135,2,0)</f>
+        <v>77</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F119">
+        <f>VLOOKUP(B119,$I$1:$L$135,4,0)</f>
+        <v>0.64938300000000004</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J119" s="1">
+        <v>7</v>
+      </c>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1">
+        <v>0.82926100000000003</v>
+      </c>
+      <c r="O119">
         <v>47</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -2120,10 +4717,31 @@
         <v>75</v>
       </c>
       <c r="C120">
+        <f>VLOOKUP(B120,$I$1:$L$135,2,0)</f>
+        <v>62</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F120">
+        <f>VLOOKUP(B120,$I$1:$L$135,4,0)</f>
+        <v>0.73609599999999997</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J120" s="1">
+        <v>7</v>
+      </c>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1">
+        <v>0.104821</v>
+      </c>
+      <c r="O120">
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
@@ -2131,10 +4749,31 @@
         <v>76</v>
       </c>
       <c r="C121">
+        <f>VLOOKUP(B121,$I$1:$L$135,2,0)</f>
+        <v>28</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F121">
+        <f>VLOOKUP(B121,$I$1:$L$135,4,0)</f>
+        <v>0.34335599999999999</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J121" s="1">
+        <v>7</v>
+      </c>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1">
+        <v>8.9324000000000001E-2</v>
+      </c>
+      <c r="O121">
         <v>15</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -2142,10 +4781,31 @@
         <v>77</v>
       </c>
       <c r="C122">
+        <f>VLOOKUP(B122,$I$1:$L$135,2,0)</f>
+        <v>15</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F122">
+        <f>VLOOKUP(B122,$I$1:$L$135,4,0)</f>
+        <v>9.4326999999999994E-2</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J122" s="1">
+        <v>7</v>
+      </c>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1">
+        <v>0.15299299999999999</v>
+      </c>
+      <c r="O122">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
@@ -2153,10 +4813,31 @@
         <v>78</v>
       </c>
       <c r="C123">
+        <f>VLOOKUP(B123,$I$1:$L$135,2,0)</f>
+        <v>28</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F123">
+        <f>VLOOKUP(B123,$I$1:$L$135,4,0)</f>
+        <v>0.55454899999999996</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J123" s="1">
+        <v>7</v>
+      </c>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1">
+        <v>0.175062</v>
+      </c>
+      <c r="O123">
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
@@ -2164,10 +4845,31 @@
         <v>79</v>
       </c>
       <c r="C124">
+        <f>VLOOKUP(B124,$I$1:$L$135,2,0)</f>
+        <v>68</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F124">
+        <f>VLOOKUP(B124,$I$1:$L$135,4,0)</f>
+        <v>0.70451399999999997</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J124" s="1">
+        <v>7</v>
+      </c>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1">
+        <v>0.24789600000000001</v>
+      </c>
+      <c r="O124">
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -2175,10 +4877,31 @@
         <v>80</v>
       </c>
       <c r="C125">
+        <f>VLOOKUP(B125,$I$1:$L$135,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F125">
+        <f>VLOOKUP(B125,$I$1:$L$135,4,0)</f>
+        <v>9.1824000000000003E-2</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J125" s="1">
+        <v>7</v>
+      </c>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1">
+        <v>0.105346</v>
+      </c>
+      <c r="O125">
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -2186,10 +4909,31 @@
         <v>81</v>
       </c>
       <c r="C126">
+        <f>VLOOKUP(B126,$I$1:$L$135,2,0)</f>
+        <v>39</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F126">
+        <f>VLOOKUP(B126,$I$1:$L$135,4,0)</f>
+        <v>0.327179</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J126" s="1">
+        <v>7</v>
+      </c>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1">
+        <v>0.58782400000000001</v>
+      </c>
+      <c r="O126">
         <v>19</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -2197,10 +4941,31 @@
         <v>82</v>
       </c>
       <c r="C127">
+        <f>VLOOKUP(B127,$I$1:$L$135,2,0)</f>
+        <v>25</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F127">
+        <f>VLOOKUP(B127,$I$1:$L$135,4,0)</f>
+        <v>0.914219</v>
+      </c>
+      <c r="I127" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J127" s="1">
+        <v>7</v>
+      </c>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1">
+        <v>0.100701</v>
+      </c>
+      <c r="O127">
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -2208,10 +4973,31 @@
         <v>83</v>
       </c>
       <c r="C128">
+        <f>VLOOKUP(B128,$I$1:$L$135,2,0)</f>
+        <v>24</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F128">
+        <f>VLOOKUP(B128,$I$1:$L$135,4,0)</f>
+        <v>0.51248000000000005</v>
+      </c>
+      <c r="I128" s="1">
+        <v>5</v>
+      </c>
+      <c r="J128" s="1">
+        <v>7</v>
+      </c>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1">
+        <v>0.65352500000000002</v>
+      </c>
+      <c r="O128">
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -2219,10 +5005,31 @@
         <v>84</v>
       </c>
       <c r="C129">
+        <f>VLOOKUP(B129,$I$1:$L$135,2,0)</f>
+        <v>39</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F129">
+        <f>VLOOKUP(B129,$I$1:$L$135,4,0)</f>
+        <v>0.29412300000000002</v>
+      </c>
+      <c r="I129" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J129" s="1">
+        <v>7</v>
+      </c>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1">
+        <v>0.16573499999999999</v>
+      </c>
+      <c r="O129">
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -2230,10 +5037,31 @@
         <v>85</v>
       </c>
       <c r="C130">
+        <f>VLOOKUP(B130,$I$1:$L$135,2,0)</f>
+        <v>28</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F130">
+        <f>VLOOKUP(B130,$I$1:$L$135,4,0)</f>
+        <v>0.31153399999999998</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J130" s="1">
+        <v>7</v>
+      </c>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1">
+        <v>0.14904400000000001</v>
+      </c>
+      <c r="O130">
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -2241,10 +5069,31 @@
         <v>86</v>
       </c>
       <c r="C131">
+        <f>VLOOKUP(B131,$I$1:$L$135,2,0)</f>
+        <v>17</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F131">
+        <f>VLOOKUP(B131,$I$1:$L$135,4,0)</f>
+        <v>0.22283500000000001</v>
+      </c>
+      <c r="I131" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J131" s="1">
+        <v>7</v>
+      </c>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1">
+        <v>9.7567000000000001E-2</v>
+      </c>
+      <c r="O131">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -2252,10 +5101,31 @@
         <v>87</v>
       </c>
       <c r="C132">
+        <f>VLOOKUP(B132,$I$1:$L$135,2,0)</f>
+        <v>21</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F132">
+        <f>VLOOKUP(B132,$I$1:$L$135,4,0)</f>
+        <v>0.11004</v>
+      </c>
+      <c r="I132" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J132" s="1">
+        <v>7</v>
+      </c>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1">
+        <v>0.564554</v>
+      </c>
+      <c r="O132">
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -2263,10 +5133,31 @@
         <v>88</v>
       </c>
       <c r="C133">
+        <f>VLOOKUP(B133,$I$1:$L$135,2,0)</f>
+        <v>24</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F133">
+        <f>VLOOKUP(B133,$I$1:$L$135,4,0)</f>
+        <v>0.64576100000000003</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J133" s="1">
+        <v>6</v>
+      </c>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1">
+        <v>9.647E-2</v>
+      </c>
+      <c r="O133">
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -2274,10 +5165,31 @@
         <v>89</v>
       </c>
       <c r="C134">
+        <f>VLOOKUP(B134,$I$1:$L$135,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F134">
+        <f>VLOOKUP(B134,$I$1:$L$135,4,0)</f>
+        <v>0.564554</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J134" s="1">
+        <v>6</v>
+      </c>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1">
+        <v>0.14432</v>
+      </c>
+      <c r="O134">
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -2285,10 +5197,31 @@
         <v>90</v>
       </c>
       <c r="C135">
+        <f>VLOOKUP(B135,$I$1:$L$135,2,0)</f>
+        <v>23</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F135">
+        <f>VLOOKUP(B135,$I$1:$L$135,4,0)</f>
+        <v>9.6971000000000002E-2</v>
+      </c>
+      <c r="I135" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J135" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="K135" s="1"/>
+      <c r="L135" s="1">
+        <v>0.14432</v>
+      </c>
+      <c r="O135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -2296,10 +5229,21 @@
         <v>91</v>
       </c>
       <c r="C136">
+        <f>VLOOKUP(B136,$I$1:$L$135,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F136">
+        <f>VLOOKUP(B136,$I$1:$L$135,4,0)</f>
+        <v>0.153392</v>
+      </c>
+      <c r="O136">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
@@ -2307,10 +5251,21 @@
         <v>92</v>
       </c>
       <c r="C137">
+        <f>VLOOKUP(B137,$I$1:$L$135,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F137">
+        <f>VLOOKUP(B137,$I$1:$L$135,4,0)</f>
+        <v>0.15299299999999999</v>
+      </c>
+      <c r="O137">
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -2318,10 +5273,21 @@
         <v>93</v>
       </c>
       <c r="C138">
+        <f>VLOOKUP(B138,$I$1:$L$135,2,0)</f>
+        <v>17</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F138">
+        <f>VLOOKUP(B138,$I$1:$L$135,4,0)</f>
+        <v>0.32784099999999999</v>
+      </c>
+      <c r="O138">
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
@@ -2329,10 +5295,21 @@
         <v>94</v>
       </c>
       <c r="C139">
+        <f>VLOOKUP(B139,$I$1:$L$135,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F139">
+        <f>VLOOKUP(B139,$I$1:$L$135,4,0)</f>
+        <v>0.105346</v>
+      </c>
+      <c r="O139">
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
@@ -2340,10 +5317,21 @@
         <v>95</v>
       </c>
       <c r="C140">
+        <f>VLOOKUP(B140,$I$1:$L$135,2,0)</f>
+        <v>17</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F140">
+        <f>VLOOKUP(B140,$I$1:$L$135,4,0)</f>
+        <v>0.332507</v>
+      </c>
+      <c r="O140">
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
@@ -2351,10 +5339,21 @@
         <v>96</v>
       </c>
       <c r="C141">
+        <f>VLOOKUP(B141,$I$1:$L$135,2,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F141">
+        <f>VLOOKUP(B141,$I$1:$L$135,4,0)</f>
+        <v>0.14432</v>
+      </c>
+      <c r="O141">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
@@ -2362,21 +5361,42 @@
         <v>97</v>
       </c>
       <c r="C142">
+        <f>VLOOKUP(B142,$I$1:$L$135,2,0)</f>
+        <v>12</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F142">
+        <f>VLOOKUP(B142,$I$1:$L$135,4,0)</f>
+        <v>0.21940599999999999</v>
+      </c>
+      <c r="O142">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D143" s="1"/>
+      <c r="E143" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F143" s="1">
+        <v>5.2457999999999998E-2</v>
+      </c>
+      <c r="O143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -2384,10 +5404,21 @@
         <v>99</v>
       </c>
       <c r="C144">
+        <f>VLOOKUP(B144,$I$1:$L$135,2,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F144">
+        <f>VLOOKUP(B144,$I$1:$L$135,4,0)</f>
+        <v>8.9324000000000001E-2</v>
+      </c>
+      <c r="O144">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -2395,21 +5426,42 @@
         <v>100</v>
       </c>
       <c r="C145">
+        <f>VLOOKUP(B145,$I$1:$L$135,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F145">
+        <f>VLOOKUP(B145,$I$1:$L$135,4,0)</f>
+        <v>0.15198700000000001</v>
+      </c>
+      <c r="O145">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D146" s="1"/>
+      <c r="E146" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F146" s="1">
+        <v>5.6524999999999999E-2</v>
+      </c>
+      <c r="O146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
@@ -2417,32 +5469,63 @@
         <v>102</v>
       </c>
       <c r="C147">
+        <f>VLOOKUP(B147,$I$1:$L$135,2,0)</f>
+        <v>19</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F147">
+        <f>VLOOKUP(B147,$I$1:$L$135,4,0)</f>
+        <v>0.300398</v>
+      </c>
+      <c r="O147">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="D148" s="1"/>
+      <c r="E148" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F148" s="1">
+        <v>2.7181E-2</v>
+      </c>
+      <c r="O148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>186</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="1">
+        <v>66</v>
+      </c>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F149" s="1">
+        <v>0.66001900000000002</v>
+      </c>
+      <c r="O149">
         <v>64</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>187</v>
       </c>
@@ -2450,43 +5533,84 @@
         <v>131</v>
       </c>
       <c r="C150">
+        <f>VLOOKUP(B150,$I$1:$L$135,2,0)</f>
+        <v>110</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F150">
+        <f>VLOOKUP(B150,$I$1:$L$135,4,0)</f>
+        <v>0.64237200000000005</v>
+      </c>
+      <c r="O150">
         <v>115</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>188</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="1">
+        <v>84</v>
+      </c>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F151" s="1">
+        <v>0.623336</v>
+      </c>
+      <c r="O151">
         <v>69</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>189</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="1">
+        <v>51</v>
+      </c>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F152" s="1">
+        <v>0.46691500000000002</v>
+      </c>
+      <c r="O152">
         <v>18</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>190</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="1">
+        <v>59</v>
+      </c>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F153" s="1">
+        <v>0.24013100000000001</v>
+      </c>
+      <c r="O153">
         <v>35</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>191</v>
       </c>
@@ -2494,10 +5618,21 @@
         <v>135</v>
       </c>
       <c r="C154">
+        <f>VLOOKUP(B154,$I$1:$L$135,2,0)</f>
+        <v>48</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F154">
+        <f>VLOOKUP(B154,$I$1:$L$135,4,0)</f>
+        <v>0.271955</v>
+      </c>
+      <c r="O154">
         <v>27</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>192</v>
       </c>
@@ -2505,10 +5640,24 @@
         <v>136</v>
       </c>
       <c r="C155">
+        <f>VLOOKUP(B155,$I$1:$L$135,2,0)</f>
+        <v>11</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F155">
+        <f>VLOOKUP(B155,$I$1:$L$135,4,0)</f>
+        <v>8.9829999999999993E-2</v>
+      </c>
+      <c r="O155">
         <v>2</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:J135">
+    <sortCondition descending="1" ref="J1:J135"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
